--- a/MATLAB/FanPowerCurve.xlsx
+++ b/MATLAB/FanPowerCurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thequ\Documents\GitHub\BEP\BEP\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04B5ECE-9C9D-4353-9626-FA5A509C106D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D016A8-2044-40DE-B9FF-187A788881A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F95DA856-8800-4DBC-A4BE-C8B7731327AE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F95DA856-8800-4DBC-A4BE-C8B7731327AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +113,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2760,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6E4431-2A3A-4509-91B4-41CDE98B96BE}">
   <dimension ref="D2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,7 +2867,7 @@
         <v>8.0920000000000002E-3</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:L23" si="3">H4/J4 * 1000</f>
+        <f t="shared" ref="L4:L19" si="3">H4/J4 * 1000</f>
         <v>2.3495934959349594</v>
       </c>
     </row>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A966733-C040-4D9C-93DE-CFC2ED8EA00D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
